--- a/source.xlsx
+++ b/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/brendan_ford_dc_gov/Documents/Desktop/Programs - RGD/Truck Price Calculation/Truck Price Calculation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brendan.ford\OneDrive - Government of The District of Columbia\Desktop\Programs - RGD\Truck Price Calculation\5223\Truck Price Calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{985583B8-78C2-461C-99DE-80B9835DACDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DB2AA06-8265-41A1-BD54-586340477F5E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE0150A-79D6-4D4B-890A-17D1EFD9BB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D09A14F-D0AD-AF47-8B06-2E3ACC478307}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Department of Public Works</t>
   </si>
@@ -115,9 +115,6 @@
     <t>THANK YOU FOR YOUR BUSINESS!</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -136,7 +133,7 @@
     <t>SERVICE: Solid Waste Services During Event  &amp; Towing</t>
   </si>
   <si>
-    <t>For: Howard Homecoming Parade</t>
+    <t xml:space="preserve">For: </t>
   </si>
 </sst>
 </file>
@@ -147,7 +144,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,14 +256,6 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -399,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -437,76 +426,70 @@
     <xf numFmtId="8" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,10 +609,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -929,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010C87E9-5818-A449-900D-8E77038CC34A}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="81" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -946,132 +925,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" customHeight="1">
-      <c r="F1" s="14"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="32.1" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="31"/>
+      <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="32"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="33"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="33"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2">
-        <v>655</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="2"/>
       <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="15">
-        <v>44845</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="19"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A13" s="22" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5"/>
@@ -1080,7 +1055,7 @@
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1">
       <c r="A19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="25.5" thickTop="1" thickBot="1">
@@ -1099,11 +1074,11 @@
       <c r="E20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="I20" s="16"/>
+      <c r="G20" s="28"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
       <c r="A21" s="9"/>
@@ -1111,8 +1086,8 @@
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
       <c r="A22" s="9"/>
@@ -1120,8 +1095,8 @@
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
       <c r="A23" s="9"/>
@@ -1129,8 +1104,8 @@
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
       <c r="A24" s="9"/>
@@ -1138,8 +1113,8 @@
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
       <c r="A25" s="9"/>
@@ -1147,8 +1122,8 @@
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
       <c r="A26" s="9"/>
@@ -1156,8 +1131,8 @@
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
       <c r="A27" s="9"/>
@@ -1165,8 +1140,8 @@
       <c r="C27" s="11"/>
       <c r="D27" s="10"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
       <c r="A28" s="9"/>
@@ -1174,8 +1149,8 @@
       <c r="C28" s="11"/>
       <c r="D28" s="10"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
       <c r="A29" s="9"/>
@@ -1183,8 +1158,8 @@
       <c r="C29" s="11"/>
       <c r="D29" s="10"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
       <c r="A30" s="9"/>
@@ -1192,8 +1167,8 @@
       <c r="C30" s="11"/>
       <c r="D30" s="10"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
       <c r="A31" s="9"/>
@@ -1201,8 +1176,8 @@
       <c r="C31" s="11"/>
       <c r="D31" s="10"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
       <c r="A32" s="9"/>
@@ -1210,8 +1185,8 @@
       <c r="C32" s="11"/>
       <c r="D32" s="10"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="26.1" customHeight="1" thickBot="1">
       <c r="A33" s="9"/>
@@ -1219,8 +1194,8 @@
       <c r="C33" s="11"/>
       <c r="D33" s="10"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" ht="26.1" customHeight="1" thickBot="1">
       <c r="A34" s="9"/>
@@ -1228,8 +1203,8 @@
       <c r="C34" s="11"/>
       <c r="D34" s="10"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" ht="26.1" customHeight="1" thickBot="1">
       <c r="A35" s="9"/>
@@ -1237,8 +1212,8 @@
       <c r="C35" s="11"/>
       <c r="D35" s="10"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" ht="26.1" customHeight="1" thickBot="1">
       <c r="A36" s="9"/>
@@ -1246,8 +1221,8 @@
       <c r="C36" s="11"/>
       <c r="D36" s="10"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" ht="26.1" customHeight="1" thickBot="1">
       <c r="A37" s="9"/>
@@ -1255,8 +1230,8 @@
       <c r="C37" s="11"/>
       <c r="D37" s="10"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" ht="26.1" customHeight="1" thickBot="1">
       <c r="A38" s="9"/>
@@ -1264,8 +1239,8 @@
       <c r="C38" s="11"/>
       <c r="D38" s="10"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" ht="26.1" customHeight="1" thickBot="1">
       <c r="A39" s="9"/>
@@ -1273,8 +1248,8 @@
       <c r="C39" s="11"/>
       <c r="D39" s="10"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" ht="26.1" customHeight="1" thickBot="1">
       <c r="A40" s="9"/>
@@ -1282,126 +1257,603 @@
       <c r="C40" s="11"/>
       <c r="D40" s="10"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="37"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="23"/>
-      <c r="B42" s="33" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
+    </row>
+    <row r="57" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="60" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
+    </row>
+    <row r="61" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+    </row>
+    <row r="63" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="64" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="24"/>
+    </row>
+    <row r="65" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="24"/>
+    </row>
+    <row r="66" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A66" s="9"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="24"/>
+    </row>
+    <row r="67" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A67" s="9"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="24"/>
+    </row>
+    <row r="68" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="24"/>
+    </row>
+    <row r="69" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="24"/>
+    </row>
+    <row r="70" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="24"/>
+    </row>
+    <row r="71" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="24"/>
+    </row>
+    <row r="72" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="24"/>
+    </row>
+    <row r="73" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="24"/>
+    </row>
+    <row r="74" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="24"/>
+    </row>
+    <row r="75" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="24"/>
+    </row>
+    <row r="76" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A76" s="9"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="24"/>
+    </row>
+    <row r="77" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A77" s="9"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="24"/>
+    </row>
+    <row r="78" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A78" s="9"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="24"/>
+    </row>
+    <row r="79" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A79" s="9"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="24"/>
+    </row>
+    <row r="80" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A80" s="9"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="24"/>
+    </row>
+    <row r="81" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="24"/>
+    </row>
+    <row r="82" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="24"/>
+    </row>
+    <row r="83" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A83" s="9"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="24"/>
+    </row>
+    <row r="84" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A84" s="9"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="24"/>
+    </row>
+    <row r="85" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A85" s="9"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="24"/>
+    </row>
+    <row r="86" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A86" s="9"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="24"/>
+    </row>
+    <row r="87" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A87" s="9"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="24"/>
+    </row>
+    <row r="88" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A88" s="9"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="24"/>
+    </row>
+    <row r="89" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A89" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="24"/>
+    </row>
+    <row r="90" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A90" s="9"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="24"/>
+    </row>
+    <row r="91" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="24"/>
+    </row>
+    <row r="92" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A92" s="9"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="24"/>
+    </row>
+    <row r="93" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A93" s="9"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="24"/>
+    </row>
+    <row r="94" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="20"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1"/>
+      <c r="B95" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="29"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="23"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="30"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="23"/>
-      <c r="B44" s="33" t="s">
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="21"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="22"/>
+    </row>
+    <row r="97" spans="1:7" ht="24">
+      <c r="A97" s="1"/>
+      <c r="B97" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="30"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="23"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="30"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="23"/>
-      <c r="B46" s="33" t="s">
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="22"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="22"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1"/>
+      <c r="B99" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="30"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="30"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="22"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="22"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="G42:G47"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
+  <mergeCells count="92">
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
     <mergeCell ref="D2:E7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -1414,11 +1866,49 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F45:G45"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
